--- a/ビジネスモデル図鑑.xlsx
+++ b/ビジネスモデル図鑑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10001210862\Documents\TopSE\ソフトウェア開発実践演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10001210862\Documents\TopSE\ソフトウェア開発実践演習\git\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="277">
   <si>
     <t>No.</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>SCOUTER</t>
   </si>
   <si>
-    <t>プロシューマ―</t>
-  </si>
-  <si>
     <t>クラウドソーシング</t>
   </si>
   <si>
@@ -1379,6 +1376,511 @@
   </si>
   <si>
     <t>Mikkeller</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>ダイアログ・イン・ザ・ダーク</t>
+  </si>
+  <si>
+    <t>体験の販売</t>
+    <rPh sb="0" eb="2">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>キッチハイク</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>WeLive</t>
+  </si>
+  <si>
+    <t>部分所有</t>
+    <rPh sb="0" eb="2">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショユウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>隠れた収益源</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウエキゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>LifeStraw</t>
+  </si>
+  <si>
+    <t>押収した違法銃</t>
+    <rPh sb="0" eb="2">
+      <t>オウシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処分できずに放置</t>
+    <rPh sb="0" eb="2">
+      <t>ショブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処分させずに収益化</t>
+    <rPh sb="0" eb="2">
+      <t>ショブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュウエキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>違法な銃がおしゃれな時計や自転車に変わる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「公共事業はお金がかかる」を覆す、すごい仕組み</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>公共事業</t>
+    <rPh sb="0" eb="2">
+      <t>コウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成果にかかわらず費用がかかる</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成果に合わせて費用がかかる</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「友人・知人のネットワーク」を活用した転職エージェント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>転職エージェント</t>
+    <rPh sb="0" eb="2">
+      <t>テンショク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロが専業でやるもの</t>
+    <rPh sb="3" eb="5">
+      <t>センギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>個人が副業でやるもの</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファンの間で熱狂的な人気を誇る「クソアニメ」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>深夜アニメ</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>制作委員会方式が主流</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イインカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュリュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単独出資方式で制作</t>
+    <rPh sb="0" eb="2">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人だけでなくモノも運ぶ「インドネシア版Uber」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バイクタクシー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>交通インフラ</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>物流インフラ</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームレスの自立を応援するための雑誌</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームレス支援</t>
+    <rPh sb="5" eb="7">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>寄付や物品による支援</t>
+    <rPh sb="0" eb="2">
+      <t>キフ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自立を促すための仕事の提供による支援</t>
+    <rPh sb="0" eb="2">
+      <t>ジリツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミクシィがはじめたサロンスタッフを「直接指名」できるアプリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>美容系マッチングアプリ</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スタッフではなくサロンを探すもの</t>
+    <rPh sb="12" eb="13">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サロンではなくスタッフを探すもの</t>
+    <rPh sb="12" eb="13">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>年間100種類の新商品を生み出す「設備を持たない」ビールメーカー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラフトビール製造</t>
+    <rPh sb="7" eb="9">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自社の設備でつくるもの</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>他社の設備でつくるもの</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>完全暗闇を体感するソーシャルエンターテインメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>体験型ワークショップ</t>
+    <rPh sb="0" eb="3">
+      <t>タイケンガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>すべての感覚を使って体験する</t>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>視覚以外の感覚を使って体験する</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>料理を「つくりたい人」と「食べたい人」をつなぐコミュニティ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>手作り料理</t>
+    <rPh sb="0" eb="2">
+      <t>テヅク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>家族や友人にふるまうもの</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウジン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初めての人にもふるまえるもの</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「WeWork」（シェアオフィス）に続く、コミュニティ重視の居住スタイル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シェアハウス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コミュニティマネージャーがいない</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コミュニティマネージャーがいる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>安全な水が飲めるストロー型の浄水器</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>困りごとを解決する商品</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>必要とする人が対価を払う</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社会課題に関心のある企業が対価を払う</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>業界をアシストする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>隠れた収益源</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウエキゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ライセンシング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラウドソーシング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロシューマ―</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クロスセル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オーケストレーター</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>OEM製品</t>
@@ -1388,492 +1890,18 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>ダイアログ・イン・ザ・ダーク</t>
-  </si>
-  <si>
-    <t>体験の販売</t>
-    <rPh sb="0" eb="2">
-      <t>タイケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>キッチハイク</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>WeLive</t>
-  </si>
-  <si>
-    <t>部分所有</t>
-    <rPh sb="0" eb="2">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショユウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>隠れた収益源</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュウエキゲン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>LifeStraw</t>
-  </si>
-  <si>
-    <t>押収した違法銃</t>
-    <rPh sb="0" eb="2">
-      <t>オウシュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処分できずに放置</t>
-    <rPh sb="0" eb="2">
-      <t>ショブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処分させずに収益化</t>
-    <rPh sb="0" eb="2">
-      <t>ショブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シュウエキカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>違法な銃がおしゃれな時計や自転車に変わる</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「公共事業はお金がかかる」を覆す、すごい仕組み</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>公共事業</t>
-    <rPh sb="0" eb="2">
-      <t>コウキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジギョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>成果にかかわらず費用がかかる</t>
-    <rPh sb="0" eb="2">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>成果に合わせて費用がかかる</t>
-    <rPh sb="0" eb="2">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「友人・知人のネットワーク」を活用した転職エージェント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>転職エージェント</t>
-    <rPh sb="0" eb="2">
-      <t>テンショク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロが専業でやるもの</t>
-    <rPh sb="3" eb="5">
-      <t>センギョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>個人が副業でやるもの</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ファンの間で熱狂的な人気を誇る「クソアニメ」</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>深夜アニメ</t>
-    <rPh sb="0" eb="2">
-      <t>シンヤ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>制作委員会方式が主流</t>
-    <rPh sb="0" eb="2">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>イインカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュリュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単独出資方式で制作</t>
-    <rPh sb="0" eb="2">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュッシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>人だけでなくモノも運ぶ「インドネシア版Uber」</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>バイクタクシー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>交通インフラ</t>
-    <rPh sb="0" eb="2">
-      <t>コウツウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>物流インフラ</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ホームレスの自立を応援するための雑誌</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ホームレス支援</t>
-    <rPh sb="5" eb="7">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>寄付や物品による支援</t>
-    <rPh sb="0" eb="2">
-      <t>キフ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブッピン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>自立を促すための仕事の提供による支援</t>
-    <rPh sb="0" eb="2">
-      <t>ジリツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ミクシィがはじめたサロンスタッフを「直接指名」できるアプリ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>美容系マッチングアプリ</t>
-    <rPh sb="0" eb="2">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>スタッフではなくサロンを探すもの</t>
-    <rPh sb="12" eb="13">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サロンではなくスタッフを探すもの</t>
-    <rPh sb="12" eb="13">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>年間100種類の新商品を生み出す「設備を持たない」ビールメーカー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クラフトビール製造</t>
-    <rPh sb="7" eb="9">
-      <t>セイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>自社の設備でつくるもの</t>
-    <rPh sb="0" eb="2">
-      <t>ジシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>他社の設備でつくるもの</t>
-    <rPh sb="0" eb="2">
-      <t>タシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>完全暗闇を体感するソーシャルエンターテインメント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>体験型ワークショップ</t>
-    <rPh sb="0" eb="3">
-      <t>タイケンガタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>すべての感覚を使って体験する</t>
-    <rPh sb="4" eb="6">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイケン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>視覚以外の感覚を使って体験する</t>
-    <rPh sb="0" eb="2">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイケン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>料理を「つくりたい人」と「食べたい人」をつなぐコミュニティ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>手作り料理</t>
-    <rPh sb="0" eb="2">
-      <t>テヅク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リョウリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>家族や友人にふるまうもの</t>
-    <rPh sb="0" eb="2">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウジン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初めての人にもふるまえるもの</t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
+    <t>プロシューマ―</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デジタル化</t>
     <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「WeWork」（シェアオフィス）に続く、コミュニティ重視の居住スタイル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>シェアハウス</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コミュニティマネージャーがいない</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コミュニティマネージャーがいる</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>安全な水が飲めるストロー型の浄水器</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>困りごとを解決する商品</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>必要とする人が対価を払う</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>社会課題に関心のある企業が対価を払う</t>
-    <rPh sb="0" eb="2">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>業界をアシストする</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>隠れた収益源</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュウエキゲン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ライセンシング</t>
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成果報酬型契約</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2302,7 +2330,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
@@ -2982,7 +3010,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>137</v>
@@ -3074,20 +3102,24 @@
       <c r="D26" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3107,16 +3139,16 @@
         <v>37</v>
       </c>
       <c r="H27" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="K27" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3127,105 +3159,111 @@
         <v>192</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="K28" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="K29" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="D30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+        <v>193</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="G30" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="K30" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3233,184 +3271,208 @@
         <v>49</v>
       </c>
       <c r="H31" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="K31" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="C32" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H32" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="K32" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="C33" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="K33" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="K34" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="H35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="K35" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="H36" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="K36" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>267</v>
-      </c>
       <c r="K37" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:11">

--- a/ビジネスモデル図鑑.xlsx
+++ b/ビジネスモデル図鑑.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10001210862\Documents\TopSE\ソフトウェア開発実践演習\git\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9700099\Documents\GitHub\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="365">
   <si>
     <t>No.</t>
   </si>
@@ -191,7 +191,7 @@
   </si>
   <si>
     <t>066</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>067</t>
@@ -228,66 +228,66 @@
   </si>
   <si>
     <t>獺祭</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>データとIT活用で実現した「素人による酒づくり」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シェアオフィスに続く「シェア店舗」というアイデア</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>返品された商品を自動で「再出荷」できるシステム</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>一流シェフの料理を低価格で味わえる秘密は「回転率」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>捨てるよりも楽な「モノ版」のクラウドストレージ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">個包装で飲み間違いをなくす次世代のオンライン薬局
 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自分の気分や体調に合わせたおかずを注文できる定食屋</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>開店前のレストランがコワーキングスペースに</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「田んぼアート」でお米が買える地方創生の取り組み</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>卸を通さず、漁港から直接仕入れる鮮魚小売専門店</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>セブン‐イレブンも圧倒する地域密着型コンビニ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>デジタル化</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>インテグレータ</t>
   </si>
   <si>
     <t>Google Home</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>顧客データ活用</t>
@@ -297,32 +297,32 @@
     <rPh sb="5" eb="7">
       <t>カツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>声だけで操作できるGoogleのスマート家電</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>定説</t>
     <rPh sb="0" eb="2">
       <t>テイセツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>起点</t>
     <rPh sb="0" eb="2">
       <t>キテン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>逆説</t>
     <rPh sb="0" eb="2">
       <t>ギャクセツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>一言概要</t>
@@ -332,7 +332,7 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>純米大吟醸</t>
@@ -342,7 +342,7 @@
     <rPh sb="2" eb="5">
       <t>ダイギンジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>専門の職人による伝統的な寒づくり</t>
@@ -358,7 +358,7 @@
     <rPh sb="12" eb="13">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>従業員がＩＴを活用して四季醸造</t>
@@ -374,14 +374,14 @@
     <rPh sb="13" eb="15">
       <t>ジョウゾウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>音声アシスタント</t>
     <rPh sb="0" eb="2">
       <t>オンセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>決まった答えを返すもの</t>
@@ -394,7 +394,7 @@
     <rPh sb="7" eb="8">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>その人に応じた答えを返すもの</t>
@@ -410,22 +410,22 @@
     <rPh sb="10" eb="11">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>マスカスタマイゼージョン</t>
   </si>
   <si>
     <t>FASTALERT</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>取材のあり方を変えた「記者のいない通信社」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ニュース</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>記者が発見するもの</t>
@@ -435,14 +435,14 @@
     <rPh sb="3" eb="5">
       <t>ハッケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ＡＩが発見するもの</t>
     <rPh sb="3" eb="5">
       <t>ハッケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>専門特化プレイヤ</t>
@@ -452,11 +452,11 @@
     <rPh sb="2" eb="4">
       <t>トッカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>建設機械大手のコマツが仕掛けるIoTビジネス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>建設機械</t>
@@ -466,7 +466,7 @@
     <rPh sb="2" eb="4">
       <t>キカイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>購入ユーザが管理するもの</t>
@@ -476,7 +476,7 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>販売ユーザが管理するもの</t>
@@ -486,7 +486,7 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>稼動保証</t>
@@ -496,26 +496,26 @@
     <rPh sb="2" eb="4">
       <t>ホショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KOMTRAX</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>YAMAP</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>圏外エリアでも現在位置がわかる地図アプリ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>山登り</t>
     <rPh sb="0" eb="2">
       <t>ヤマノボ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>県外では地図機能が使えない</t>
@@ -531,7 +531,7 @@
     <rPh sb="9" eb="10">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>県外でもＧＰＳで地図機能が使える</t>
@@ -547,7 +547,7 @@
     <rPh sb="13" eb="14">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>隠された収益源</t>
@@ -557,7 +557,7 @@
     <rPh sb="4" eb="7">
       <t>シュウエキゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>フリーミアム</t>
@@ -567,11 +567,11 @@
   </si>
   <si>
     <t>陣屋コネクト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>効率化に苦しむ旅館を救う経営管理システム</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>旅館・ホテルの経営管理システム</t>
@@ -584,7 +584,7 @@
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自社が利用するために導入</t>
@@ -597,7 +597,7 @@
     <rPh sb="10" eb="12">
       <t>ドウニュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>他社も利用できるように開発</t>
@@ -610,7 +610,7 @@
     <rPh sb="11" eb="13">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>保有能力の活用</t>
@@ -623,15 +623,15 @@
     <rPh sb="5" eb="7">
       <t>カツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コエステーション</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「声を提供したい人」と「声を使いたい人」をつなぐ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>音声サービスの声</t>
@@ -641,39 +641,39 @@
     <rPh sb="7" eb="8">
       <t>コエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>デジタルで無機質なもの</t>
     <rPh sb="5" eb="8">
       <t>ムキシツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>固有でエモーショナルなもの</t>
     <rPh sb="0" eb="2">
       <t>コユウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>両面マーケット</t>
     <rPh sb="0" eb="2">
       <t>リョウメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プロシューマ</t>
   </si>
   <si>
     <t>SmartHR</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>面倒な人事労務手続きを軽減するオンラインサービス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>人事労務の手続き</t>
@@ -686,7 +686,7 @@
     <rPh sb="5" eb="7">
       <t>テツヅ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>面倒な書類作成</t>
@@ -699,7 +699,7 @@
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>簡単なオンライン作成</t>
@@ -709,15 +709,15 @@
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ピリカ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「ポイ捨てデータ」を集めたゴミ回収SNS</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゴミのポイ捨て問題</t>
@@ -727,7 +727,7 @@
     <rPh sb="7" eb="9">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>非営利団体が対応する</t>
@@ -740,7 +740,7 @@
     <rPh sb="6" eb="8">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>営利企業が解決する</t>
@@ -753,7 +753,7 @@
     <rPh sb="5" eb="7">
       <t>カイケツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>賽銭方式</t>
@@ -763,15 +763,15 @@
     <rPh sb="2" eb="4">
       <t>ホウシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>マークラインズ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>買い手市場の中で「売り手重視」の自動車産業情報ポータルサイト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自動車製造にかかる情報</t>
@@ -784,7 +784,7 @@
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自動車メーカーの系列内でローカルで閉鎖的</t>
@@ -800,7 +800,7 @@
     <rPh sb="17" eb="20">
       <t>ヘイサテキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自動車メーカーの系列を問わずグローバルでオープン化</t>
@@ -816,30 +816,30 @@
     <rPh sb="24" eb="25">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プル戦略への移行</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オーブンビジネス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>GitHub</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ソフトウェア開発のためのソースコードを共有化</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オープンソース開発</t>
     <rPh sb="7" eb="9">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>違うツールで高い技術が求められる共同開発</t>
@@ -861,7 +861,7 @@
     <rPh sb="18" eb="20">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>同じツールで簡単に共同開発</t>
@@ -877,18 +877,18 @@
     <rPh sb="11" eb="13">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オープンソース</t>
   </si>
   <si>
     <t>Checkr</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人の身元調査を簡単にする統合検索エンジン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>身元調査</t>
@@ -898,7 +898,7 @@
     <rPh sb="2" eb="4">
       <t>チョウサ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>膨大な労力がかかる</t>
@@ -908,7 +908,7 @@
     <rPh sb="3" eb="5">
       <t>ロウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>労力を要さない</t>
@@ -918,7 +918,7 @@
     <rPh sb="3" eb="4">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>従量課金</t>
@@ -928,7 +928,7 @@
     <rPh sb="2" eb="4">
       <t>カキン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>オーケストレーター</t>
@@ -947,7 +947,7 @@
     <rPh sb="6" eb="8">
       <t>テンポ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>郊外の店舗全体を年単位でレンタル</t>
@@ -963,7 +963,7 @@
     <rPh sb="8" eb="11">
       <t>ネンタンイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>都内の店舗の一部を月単位でレンタル</t>
@@ -979,11 +979,11 @@
     <rPh sb="9" eb="12">
       <t>ツキタンイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ＥＣサイト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>返品された商品はコストになる</t>
@@ -993,7 +993,7 @@
     <rPh sb="5" eb="7">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>返品された商品も再販できる</t>
@@ -1006,14 +1006,14 @@
     <rPh sb="8" eb="10">
       <t>サイハン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>一流フレンチ</t>
     <rPh sb="0" eb="2">
       <t>イチリュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>座って食べる高価な料理</t>
@@ -1029,7 +1029,7 @@
     <rPh sb="9" eb="11">
       <t>リョウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>立って食べる手頃な料理</t>
@@ -1045,7 +1045,7 @@
     <rPh sb="9" eb="11">
       <t>リョウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自宅の荷物</t>
@@ -1055,14 +1055,14 @@
     <rPh sb="3" eb="5">
       <t>ニモツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>使わないときはしまっておく</t>
     <rPh sb="0" eb="1">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>使わないときは預けておく</t>
@@ -1072,7 +1072,7 @@
     <rPh sb="7" eb="8">
       <t>アズ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>高齢者の薬の服用</t>
@@ -1085,7 +1085,7 @@
     <rPh sb="6" eb="8">
       <t>フクヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>飲み間違いが発生しやすい</t>
@@ -1098,7 +1098,7 @@
     <rPh sb="6" eb="8">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>飲み間違いが発生しづらい</t>
@@ -1111,14 +1111,14 @@
     <rPh sb="6" eb="8">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>定食屋</t>
     <rPh sb="0" eb="3">
       <t>テイショクヤ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>誰が頼んでも同じメニューの提供</t>
@@ -1134,7 +1134,7 @@
     <rPh sb="13" eb="15">
       <t>テイキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>頼んだ人に合わせたメニューを提供</t>
@@ -1150,11 +1150,11 @@
     <rPh sb="14" eb="16">
       <t>テイキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コワーキングスペース</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自前のレンタルスペースを用意する</t>
@@ -1164,7 +1164,7 @@
     <rPh sb="12" eb="14">
       <t>ヨウイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自前でレンタルスペースを用意しない</t>
@@ -1174,7 +1174,7 @@
     <rPh sb="12" eb="14">
       <t>ヨウイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>稲の栽培</t>
@@ -1184,7 +1184,7 @@
     <rPh sb="2" eb="4">
       <t>サイバイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>観るものではなく食べるためのもの</t>
@@ -1194,7 +1194,7 @@
     <rPh sb="8" eb="9">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>食べるためだけでなく観るためのもの</t>
@@ -1204,7 +1204,7 @@
     <rPh sb="10" eb="11">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>町の魚屋</t>
@@ -1214,7 +1214,7 @@
     <rPh sb="2" eb="4">
       <t>サカナヤ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>卸から売れる魚を仕入れるため少品種</t>
@@ -1233,7 +1233,7 @@
     <rPh sb="14" eb="17">
       <t>ショウヒンシュ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>漁港から直接魚を仕入れるため多品種</t>
@@ -1252,11 +1252,11 @@
     <rPh sb="14" eb="17">
       <t>タヒンシュ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コンビニ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>フランチャイズで全国展開</t>
@@ -1266,7 +1266,7 @@
     <rPh sb="10" eb="12">
       <t>テンカイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>直営主体で地域密着展開</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="9" eb="11">
       <t>テンカイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>078</t>
@@ -1298,7 +1298,7 @@
     <rPh sb="0" eb="2">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>079</t>
@@ -1317,7 +1317,7 @@
     <rPh sb="5" eb="7">
       <t>ケイヤク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>080</t>
@@ -1354,7 +1354,7 @@
     <rPh sb="3" eb="5">
       <t>トリヒキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>083</t>
@@ -1391,7 +1391,7 @@
     <rPh sb="3" eb="5">
       <t>ハンバイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>087</t>
@@ -1413,7 +1413,7 @@
     <rPh sb="2" eb="4">
       <t>ショユウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>隠れた収益源</t>
@@ -1423,7 +1423,7 @@
     <rPh sb="3" eb="6">
       <t>シュウエキゲン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>089</t>
@@ -1442,7 +1442,7 @@
     <rPh sb="6" eb="7">
       <t>ジュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>処分できずに放置</t>
@@ -1452,7 +1452,7 @@
     <rPh sb="6" eb="8">
       <t>ホウチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>処分させずに収益化</t>
@@ -1462,15 +1462,15 @@
     <rPh sb="6" eb="9">
       <t>シュウエキカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>違法な銃がおしゃれな時計や自転車に変わる</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「公共事業はお金がかかる」を覆す、すごい仕組み</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>公共事業</t>
@@ -1480,7 +1480,7 @@
     <rPh sb="2" eb="4">
       <t>ジギョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>成果にかかわらず費用がかかる</t>
@@ -1490,7 +1490,7 @@
     <rPh sb="8" eb="10">
       <t>ヒヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>成果に合わせて費用がかかる</t>
@@ -1503,25 +1503,25 @@
     <rPh sb="7" eb="9">
       <t>ヒヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「友人・知人のネットワーク」を活用した転職エージェント</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>転職エージェント</t>
     <rPh sb="0" eb="2">
       <t>テンショク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロが専業でやるもの</t>
     <rPh sb="3" eb="5">
       <t>センギョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人が副業でやるもの</t>
@@ -1531,18 +1531,18 @@
     <rPh sb="3" eb="5">
       <t>フクギョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ファンの間で熱狂的な人気を誇る「クソアニメ」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>深夜アニメ</t>
     <rPh sb="0" eb="2">
       <t>シンヤ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>制作委員会方式が主流</t>
@@ -1558,7 +1558,7 @@
     <rPh sb="8" eb="10">
       <t>シュリュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>単独出資方式で制作</t>
@@ -1574,40 +1574,40 @@
     <rPh sb="7" eb="9">
       <t>セイサク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>人だけでなくモノも運ぶ「インドネシア版Uber」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>バイクタクシー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>交通インフラ</t>
     <rPh sb="0" eb="2">
       <t>コウツウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>物流インフラ</t>
     <rPh sb="0" eb="2">
       <t>ブツリュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ホームレスの自立を応援するための雑誌</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ホームレス支援</t>
     <rPh sb="5" eb="7">
       <t>シエン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>寄付や物品による支援</t>
@@ -1620,7 +1620,7 @@
     <rPh sb="8" eb="10">
       <t>シエン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自立を促すための仕事の提供による支援</t>
@@ -1639,11 +1639,11 @@
     <rPh sb="16" eb="18">
       <t>シエン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ミクシィがはじめたサロンスタッフを「直接指名」できるアプリ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>美容系マッチングアプリ</t>
@@ -1653,32 +1653,32 @@
     <rPh sb="2" eb="3">
       <t>ケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>スタッフではなくサロンを探すもの</t>
     <rPh sb="12" eb="13">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>サロンではなくスタッフを探すもの</t>
     <rPh sb="12" eb="13">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>年間100種類の新商品を生み出す「設備を持たない」ビールメーカー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クラフトビール製造</t>
     <rPh sb="7" eb="9">
       <t>セイゾウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自社の設備でつくるもの</t>
@@ -1688,7 +1688,7 @@
     <rPh sb="3" eb="5">
       <t>セツビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>他社の設備でつくるもの</t>
@@ -1698,18 +1698,18 @@
     <rPh sb="3" eb="5">
       <t>セツビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>完全暗闇を体感するソーシャルエンターテインメント</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>体験型ワークショップ</t>
     <rPh sb="0" eb="3">
       <t>タイケンガタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>すべての感覚を使って体験する</t>
@@ -1722,7 +1722,7 @@
     <rPh sb="10" eb="12">
       <t>タイケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>視覚以外の感覚を使って体験する</t>
@@ -1741,11 +1741,11 @@
     <rPh sb="11" eb="13">
       <t>タイケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>料理を「つくりたい人」と「食べたい人」をつなぐコミュニティ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>手作り料理</t>
@@ -1755,7 +1755,7 @@
     <rPh sb="3" eb="5">
       <t>リョウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>家族や友人にふるまうもの</t>
@@ -1765,7 +1765,7 @@
     <rPh sb="3" eb="5">
       <t>ユウジン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>初めての人にもふるまえるもの</t>
@@ -1775,27 +1775,27 @@
     <rPh sb="4" eb="5">
       <t>ヒト</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「WeWork」（シェアオフィス）に続く、コミュニティ重視の居住スタイル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シェアハウス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コミュニティマネージャーがいない</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コミュニティマネージャーがいる</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>安全な水が飲めるストロー型の浄水器</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>困りごとを解決する商品</t>
@@ -1808,7 +1808,7 @@
     <rPh sb="9" eb="11">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>必要とする人が対価を払う</t>
@@ -1824,7 +1824,7 @@
     <rPh sb="10" eb="11">
       <t>ハラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>社会課題に関心のある企業が対価を払う</t>
@@ -1846,11 +1846,11 @@
     <rPh sb="16" eb="17">
       <t>ハラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>業界をアシストする</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>隠れた収益源</t>
@@ -1860,61 +1860,745 @@
     <rPh sb="3" eb="6">
       <t>シュウエキゲン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ライセンシング</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クラウドソーシング</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロシューマ―</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クロスセル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オーケストレーター</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>OEM製品</t>
     <rPh sb="3" eb="5">
       <t>セイヒン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロシューマ―</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>デジタル化</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>成果報酬型契約</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロビンフッド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クラウドファンディング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Lemonade</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイムバンク</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>036</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>037</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>032</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャッシュマシン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保険会社の利益となる</t>
+    <rPh sb="0" eb="2">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>共感する社会課題に寄付する</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キフ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プールした保険料の余剰金は社会課題の解決のために寄付</t>
+    <rPh sb="5" eb="8">
+      <t>ホケンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キフ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>033</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ポルカ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CASH</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ALIS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Mobike</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>038</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Fundbox</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>039</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Cansell</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>040</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Unipos</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SHOWROOM</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>042</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>paymo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>043</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Medicalchain</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クラウドファンディング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パブリックな場で高額の支援を求める</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プライベートな場で少額の支援を求める</t>
+    <rPh sb="7" eb="8">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>両面マーケット</t>
+    <rPh sb="0" eb="2">
+      <t>リョウメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お金で売買できないもの</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイバイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お金で売買できるもの</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイバイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>保険の剰余金</t>
+    <rPh sb="0" eb="2">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジョウヨキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>廃品リサイクル</t>
+    <rPh sb="0" eb="2">
+      <t>ハイヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中古品を売る</t>
+    <rPh sb="0" eb="2">
+      <t>チュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>売るのが先で現金は後</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>現金が先で売るのが後</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メディアのビジネスモデル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>広告収益に頼るPV主義</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>広告収益に頼らない評価主義</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カスタマーロイヤルティ</t>
+  </si>
+  <si>
+    <t>シェアサイクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>使用マナーに関係なく使用料が一定</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>使用マナーによって使用料が変化</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レンタルサービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オープンソース</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クラウドファンディング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファクタリングサービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>書類審査が面倒</t>
+    <rPh sb="0" eb="2">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>書類審査がない</t>
+    <rPh sb="0" eb="2">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>写真を撮るだけで、持ち物をすぐ「現金化」できる</t>
+  </si>
+  <si>
+    <t>「時は金なり」を実現。時間を売買できるマーケットプレイス</t>
+  </si>
+  <si>
+    <t>友達から「お金をちょっとだけ支援してもらう」アプリ</t>
+  </si>
+  <si>
+    <t>信頼できる「記事」と「人」がわかるメディアプラットフォーム</t>
+  </si>
+  <si>
+    <t>なぜ、中国のシェア自転車のマナーは改善したのか？</t>
+  </si>
+  <si>
+    <t>フィンテックで「資金繰りに困った」を解決</t>
+  </si>
+  <si>
+    <t>キャンセルするホテルの宿泊権利を売買できる</t>
+  </si>
+  <si>
+    <t>キャンセルせざるを得ない宿の予約</t>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャンセル代を払う</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>宿泊権利を誰かに売れる</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>働く仲間同士が成果給を送り合う仕組み</t>
+  </si>
+  <si>
+    <t>成果給</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>卓越した成果に対して一方的に送られる</t>
+    <rPh sb="0" eb="2">
+      <t>タクエツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イッポウテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>あらゆる成果に対してお互いに送りあう</t>
+    <rPh sb="4" eb="6">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AKB48などのアイドルを「直接」応援できるライブ配信サービス</t>
+  </si>
+  <si>
+    <t>従量課金</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アイドルの応援</t>
+    <rPh sb="5" eb="7">
+      <t>オウエン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>グッズの購入・ライブで応援</t>
+    <rPh sb="4" eb="6">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウエン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ギフトを直接渡すことができる</t>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>簡単に「割り勘」ができるキャッシュレスアプリ</t>
+  </si>
+  <si>
+    <t>割り勘</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>現金か銀行振り込みが主流だった</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュリュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アプリを利用して簡単にできる</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>患者が自分の医療データを管理するメディカルプラットフォーム</t>
+  </si>
+  <si>
+    <t>カルテの医療データ</t>
+    <rPh sb="4" eb="6">
+      <t>イリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>患者ではなく医療機関が管理するもの</t>
+    <rPh sb="0" eb="2">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>医療機関だけでなく患者が管理するもの</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Eコマース</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客データ活用</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>隠れた収益源</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウエキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラウドソーシング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オープンソース</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アフィリエイト</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1990,16 +2674,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2009,10 +2696,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2324,28 +3012,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6328125" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2674,7 +3362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.399999999999999">
+    <row r="11" spans="1:11" ht="21">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2707,842 +3395,1220 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>284</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>287</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>79</v>
+      <c r="H14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>92</v>
+        <v>281</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>97</v>
+        <v>291</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>282</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>112</v>
+      <c r="H18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>118</v>
+        <v>295</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>125</v>
+        <v>297</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>130</v>
+        <v>299</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>136</v>
+        <v>301</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>143</v>
+        <v>303</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="12" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="12" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J41" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K41" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="12" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J42" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K42" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="12" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G43" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K43" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="12" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J44" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="12" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K45" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="12" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="12" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K47" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="12" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K48" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="12" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J49" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K49" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="12" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="C39" s="5" t="s">
+    <row r="52" spans="1:11">
+      <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="G48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7">
       <c r="G52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="1:11">
       <c r="G53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="G55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
-      <c r="G54" t="s">
+    <row r="56" spans="1:11">
+      <c r="G56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
-      <c r="G55" t="s">
+    <row r="59" spans="1:11">
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="G61" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="62" spans="1:11">
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G24">
-      <formula1>$G$52:$G$55</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26:G37 G13:G24">
+      <formula1>$G$65:$G$68</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ビジネスモデル図鑑.xlsx
+++ b/ビジネスモデル図鑑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9700099\Documents\GitHub\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\masuo\git\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,39 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="387">
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
   </si>
   <si>
     <t>名前</t>
@@ -190,43 +160,6 @@
     <t>想定されるコンテキスト：業界に対する世間の新たなニーズを汲み取っている</t>
   </si>
   <si>
-    <t>066</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
     <t>獺祭</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1288,9 +1221,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>078</t>
-  </si>
-  <si>
     <t>Humanium</t>
   </si>
   <si>
@@ -1299,9 +1229,6 @@
       <t>ソザイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>079</t>
   </si>
   <si>
     <t>ソーシャルインパクトボンド</t>
@@ -1320,25 +1247,16 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>080</t>
-  </si>
-  <si>
     <t>SCOUTER</t>
   </si>
   <si>
     <t>クラウドソーシング</t>
   </si>
   <si>
-    <t>081</t>
-  </si>
-  <si>
     <t>ポプテピピック</t>
   </si>
   <si>
     <t>？？？</t>
-  </si>
-  <si>
-    <t>082</t>
   </si>
   <si>
     <t>GO-JEK</t>
@@ -1357,28 +1275,16 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>083</t>
-  </si>
-  <si>
     <t>ビッグイシュー</t>
   </si>
   <si>
     <t>ロビンフッド</t>
   </si>
   <si>
-    <t>084</t>
-  </si>
-  <si>
     <t>minimo</t>
   </si>
   <si>
-    <t>085</t>
-  </si>
-  <si>
     <t>Mikkeller</t>
-  </si>
-  <si>
-    <t>086</t>
   </si>
   <si>
     <t>ダイアログ・イン・ザ・ダーク</t>
@@ -1394,13 +1300,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>087</t>
-  </si>
-  <si>
     <t>キッチハイク</t>
-  </si>
-  <si>
-    <t>088</t>
   </si>
   <si>
     <t>WeLive</t>
@@ -1426,9 +1326,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>089</t>
-  </si>
-  <si>
     <t>LifeStraw</t>
   </si>
   <si>
@@ -1921,22 +1818,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>034</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>036</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>037</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>032</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>キャッシュマシン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1995,18 +1876,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>033</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ポルカ</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>035</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>CASH</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2019,47 +1892,23 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>038</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Fundbox</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>039</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Cansell</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>040</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Unipos</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>041</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>SHOWROOM</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>042</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>paymo</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>043</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2578,14 +2427,638 @@
   </si>
   <si>
     <t>アフィリエイト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TransferWise</t>
+  </si>
+  <si>
+    <t>グローバルモビリティサービス</t>
+  </si>
+  <si>
+    <t>クラウドクレジット</t>
+  </si>
+  <si>
+    <t>鎌倉投信</t>
+  </si>
+  <si>
+    <t>&amp;Biz</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ジャンプルーキー!</t>
+  </si>
+  <si>
+    <t>Funderbeam</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>WASSHA</t>
+  </si>
+  <si>
+    <t>Doreming Pay</t>
+  </si>
+  <si>
+    <t>ポリポリ</t>
+  </si>
+  <si>
+    <t>「見えない為替手数料」をなくす、海外送金サービス</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カワセ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「低所得者も車を所有」を実現した遠隔操作技術</t>
+  </si>
+  <si>
+    <t>日本の余剰資金と海外の資金需要をつなぐクラウドファンディング</t>
+  </si>
+  <si>
+    <t>「いいことをしている会社」を重視する投資信託</t>
+  </si>
+  <si>
+    <t>中小企業に特化したM&amp;Aマッチングサービス</t>
+  </si>
+  <si>
+    <t>『週刊少年ジャンプ』が仕掛けるマンガ家育成の仕組み</t>
+  </si>
+  <si>
+    <t>誰でも簡単に「未公開企業」に投資できる</t>
+  </si>
+  <si>
+    <t>4000万曲が「無料」で楽しめる音楽ストリーミングサービス</t>
+  </si>
+  <si>
+    <t>アフリカで「電気の量り売り」をするサービス</t>
+  </si>
+  <si>
+    <t>働いた分の給料を1日単位で使用できる給与前払いサービス</t>
+  </si>
+  <si>
+    <t>市民と政治家のコミュニケーションを促すアプリ</t>
+  </si>
+  <si>
+    <t>無料だと楽曲選択や再生時間に制限がある</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガッキョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>無料でも楽曲選択や再生時間に制限がない</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガッキョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音楽ストリーミングサービス</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>海外送金</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画国の相手口座に振り込むもの</t>
+    <rPh sb="0" eb="1">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>同じ国の第三者の口座を通じて振り込むもの</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支払い能力はあるのに与信審査に通らない人</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>車を買えなかった</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>車が買えるようになった</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>発展途上国への融資</t>
+    <rPh sb="0" eb="2">
+      <t>ハッテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>法人が対面でする投資</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個人がオンラインでする投資</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>投資信託</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>資本の形成に投資</t>
+    <rPh sb="0" eb="2">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>社会の形成に投資</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>小規模Ｍ＆Ａ</t>
+    <rPh sb="0" eb="3">
+      <t>ショウキボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仲介手数料が割に合わない</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仲介手数料が割に合う</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新人向けマンガ投稿アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>シンジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>広告収益は運営者のもの</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>広告収益は投稿者のもの</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>スタートアップ投資</t>
+    <rPh sb="7" eb="9">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報や資金が必要な「プロ」がやるもの</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報や資金の少ない「誰でも」できるもの</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電気の利用</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約してから利用し従量課金</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>前払い式で払った分だけ使える</t>
+    <rPh sb="0" eb="2">
+      <t>マエバラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>給与前払いサービス</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マエバラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>利用者が手数料を負担する</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フタン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>利用者が手数料を負担しない</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フタン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <rPh sb="0" eb="2">
+      <t>セイジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ネット上では健全な議論がしにくいもの</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギロン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ネット上でも健全な議論ができる</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギロン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レンタルサービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>低所得層ターゲット</t>
+    <rPh sb="0" eb="3">
+      <t>テイショトク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>デジタル化</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クラウドファンディング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>専門特化プレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トッカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ソリューションプロバイダー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Eコマース</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アフィリエイト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Eコマース</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>隠れた収益源</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フリーミアム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャッシュマシン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客データ活用</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツヨウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2635,6 +3108,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2680,14 +3160,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2695,8 +3172,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3012,1603 +3495,1937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
     <col min="9" max="9" width="21.109375" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
     <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>83</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>65</v>
+        <v>135</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>141</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>69</v>
+        <v>147</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>70</v>
+        <v>150</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>71</v>
+        <v>153</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>156</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21">
-      <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20.25">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="12">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="12">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="12">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="12">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="12">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="12">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="12">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="12">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="B21" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="12">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="12">
         <v>42</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="B23" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K14" s="11" t="s">
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12">
+        <v>44</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="12">
+        <v>45</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12">
+        <v>46</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12">
+        <v>47</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12">
+        <v>48</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="11" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="12">
+        <v>49</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="K30" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="12">
+        <v>50</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="K31" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="12">
+        <v>51</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="C32" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="12">
+        <v>52</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="12">
+        <v>53</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="C34" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="12">
+        <v>54</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="C35" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="12">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>149</v>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="12">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="12">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="12">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="12">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="12">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="12">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="12">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="12">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="12">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="12">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="12">
+        <v>77</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="10">
+        <v>78</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="J50" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="K50" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10">
+        <v>79</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="10">
+        <v>80</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="10">
+        <v>81</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="10">
+        <v>82</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="10">
+        <v>83</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="10">
+        <v>84</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="10">
+        <v>85</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10">
+        <v>86</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10">
+        <v>87</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J39" s="11" t="s">
+      <c r="D59" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10">
+        <v>88</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10">
+        <v>89</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="C63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="C52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="G55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="G56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="G62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7">
-      <c r="G65" t="s">
-        <v>37</v>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="G64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7">
-      <c r="G68" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7">
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26:G37 G13:G24">
-      <formula1>$G$65:$G$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G48 G13:G35">
+      <formula1>$G$76:$G$79</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ビジネスモデル図鑑.xlsx
+++ b/ビジネスモデル図鑑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\masuo\git\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\99_work\99_topse\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="451">
   <si>
     <t>No.</t>
   </si>
@@ -1496,10 +1496,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ホームレスの自立を応援するための雑誌</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ホームレス支援</t>
     <rPh sb="5" eb="7">
       <t>シエン</t>
@@ -3048,6 +3044,562 @@
     <rPh sb="5" eb="7">
       <t>カツヨウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ホームレスの自立を応援するための雑誌</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>スタディサプリ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>学生のより良い学びと未来をつくる授業動画配信サービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>学習サービス</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高額で限られた学生のみが利用可能</t>
+    <rPh sb="0" eb="2">
+      <t>コウガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>低額で多くの学生が利用可能</t>
+    <rPh sb="0" eb="2">
+      <t>テイガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>障がいのある人と社会をつなぐ新しい働き方</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Good Job! センター香芝</t>
+  </si>
+  <si>
+    <t>障がいのある人の仕事</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仕事の選択肢が限られる</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仕事の選択肢を広げる</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業界をアシストする</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>両面マーケット</t>
+    <rPh sb="0" eb="2">
+      <t>リョウメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>彩</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地元で採れる草花が高級料亭の「つまもの」に変身</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>葉っぱ（つまもの）</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>供給量が安定しない農作物</t>
+    <rPh sb="0" eb="2">
+      <t>キョウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ノウサクモツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>需要に合わせて手軽に収穫できる農作物</t>
+    <rPh sb="0" eb="2">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウカク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ノウサクモツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>留職プログラム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新興国でのボランティアを通じた人材育成プログラム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新興国のボランティア</t>
+    <rPh sb="0" eb="3">
+      <t>シンコウコク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個人が参加する社会貢献の場</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>企業が自らの社員を育成する場</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>子育てシェア</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地域の人といっしょに子育てをするシェアアプリ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>子育て</t>
+    <rPh sb="0" eb="2">
+      <t>コソダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>父親や母親がするもの</t>
+    <rPh sb="0" eb="2">
+      <t>チチオヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハハオヤ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地域の人と頼り合うもの</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業界のリソースを活用して、新たな価値を提案する</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業界をアシストする</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TABLE FOR TWO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20円で食の貧困と肥満を解決する仕組み</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>寄付</t>
+    <rPh sb="0" eb="2">
+      <t>キフ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>途上国の課題を解決する</t>
+    <rPh sb="0" eb="3">
+      <t>トジョウコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>先進国の課題も解決する</t>
+    <rPh sb="0" eb="3">
+      <t>センシンコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nana</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザー同士が歌や演奏を投稿して楽曲をつくるアプリ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音楽SNS</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>権利者が提供する楽曲に歌を投稿</t>
+    <rPh sb="0" eb="3">
+      <t>ケンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガッキョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザが提供する楽曲に歌や演奏を重ねて投稿</t>
+    <rPh sb="4" eb="6">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガッキョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エンソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>中国で急成長するエンタメ感あふれる共同購入サービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>共同購入サービス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>企業からの広告で購入を検討</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>友人からの勧誘で購入を検討</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業界内で突出する</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業界をアシストする</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フリーミアム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロシューマ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ヤンキーインターン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>中・高卒者向けの住み込み型就職支援プログラム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地方の中・高卒の進路</t>
+    <rPh sb="0" eb="2">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウソツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンロ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>東京で挑戦する機会が得づらい</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>東京で挑戦する機会が得られる</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Neighbors</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ご近所同士で実現する地域のホームセキュリティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ホームセキュリティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各家庭で行うもの</t>
+    <rPh sb="0" eb="3">
+      <t>カクカテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地域コミュニティで行うもの</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PECO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>殺処分ゼロに貢献するペット情報サイト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ペット関連情報</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>複数のサービスから仕入れる</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>１つのアプリから仕入れる</t>
+    <rPh sb="8" eb="10">
+      <t>シイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クロスセル</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3495,15 +4047,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.899999999999999"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
@@ -3842,7 +4395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.25">
+    <row r="11" spans="1:11" ht="21">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3878,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3890,16 +4443,16 @@
         <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3907,10 +4460,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>112</v>
@@ -3921,16 +4474,16 @@
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3938,34 +4491,34 @@
         <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>172</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3973,32 +4526,32 @@
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="K16" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4006,34 +4559,34 @@
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="K17" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4041,13 +4594,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>131</v>
@@ -4057,16 +4610,16 @@
         <v>27</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="K18" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4074,13 +4627,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -4088,16 +4641,16 @@
         <v>27</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="K19" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4105,13 +4658,13 @@
         <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4119,16 +4672,16 @@
         <v>32</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4136,7 +4689,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>166</v>
@@ -4148,16 +4701,16 @@
         <v>32</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="K21" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4165,13 +4718,13 @@
         <v>41</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -4179,16 +4732,16 @@
         <v>32</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="K22" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4196,7 +4749,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>172</v>
@@ -4208,16 +4761,16 @@
         <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="K23" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4225,13 +4778,13 @@
         <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -4239,16 +4792,16 @@
         <v>32</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="K24" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4256,7 +4809,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>172</v>
@@ -4268,16 +4821,16 @@
         <v>32</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="K25" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4285,32 +4838,32 @@
         <v>45</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="K26" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4318,10 +4871,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4330,16 +4883,16 @@
         <v>39</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="K27" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4347,10 +4900,10 @@
         <v>47</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4359,16 +4912,16 @@
         <v>28</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="K28" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4376,32 +4929,32 @@
         <v>48</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="K29" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4409,13 +4962,13 @@
         <v>49</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4423,16 +4976,16 @@
         <v>27</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="K30" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4440,10 +4993,10 @@
         <v>50</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4452,16 +5005,16 @@
         <v>27</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="K31" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4469,13 +5022,13 @@
         <v>51</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4483,16 +5036,16 @@
         <v>32</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="K32" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4500,13 +5053,13 @@
         <v>52</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4514,16 +5067,16 @@
         <v>32</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="K33" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4531,10 +5084,10 @@
         <v>53</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -4543,16 +5096,16 @@
         <v>32</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="K34" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4560,32 +5113,32 @@
         <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="K35" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4893,7 +5446,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>115</v>
@@ -5042,13 +5595,13 @@
         <v>167</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8" t="s">
@@ -5078,10 +5631,10 @@
         <v>170</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
@@ -5114,10 +5667,10 @@
         <v>168</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5154,16 +5707,16 @@
         <v>39</v>
       </c>
       <c r="H55" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="K55" s="8" t="s">
-        <v>204</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5177,24 +5730,24 @@
         <v>172</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8" t="s">
-        <v>27</v>
+        <v>397</v>
       </c>
       <c r="H56" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="K56" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5205,10 +5758,10 @@
         <v>176</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -5216,16 +5769,16 @@
         <v>28</v>
       </c>
       <c r="H57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="K57" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5245,16 +5798,16 @@
         <v>39</v>
       </c>
       <c r="H58" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="J58" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="K58" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5271,25 +5824,25 @@
         <v>178</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H59" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="J59" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="K59" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5309,22 +5862,22 @@
         <v>88</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="J60" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="K60" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5346,78 +5899,415 @@
         <v>39</v>
       </c>
       <c r="H61" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="K61" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10">
+        <v>90</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="10">
+        <v>91</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="10">
+        <v>92</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="10">
+        <v>93</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="10">
+        <v>94</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="10">
+        <v>95</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="10">
+        <v>96</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="10">
+        <v>97</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" t="s">
+        <v>431</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="10">
+        <v>98</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="10">
+        <v>99</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="10">
+        <v>100</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="C74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="G77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="G78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="G80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7">
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7">
-      <c r="G66" t="s">
+    <row r="88" spans="7:7">
+      <c r="G88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="7:7">
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7">
-      <c r="G69" t="s">
+    <row r="89" spans="7:7">
+      <c r="G89" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="7:7">
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7">
-      <c r="G72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7">
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7">
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7">
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7">
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7">
-      <c r="G79" t="s">
+    <row r="90" spans="7:7">
+      <c r="G90" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5425,7 +6315,7 @@
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G48 G13:G35">
-      <formula1>$G$76:$G$79</formula1>
+      <formula1>$G$87:$G$90</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ビジネスモデル図鑑.xlsx
+++ b/ビジネスモデル図鑑.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\99_work\99_topse\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\0000011236880\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="517">
   <si>
     <t>No.</t>
   </si>
@@ -3602,11 +3602,553 @@
     <t>クロスセル</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>WAmazing</t>
+  </si>
+  <si>
+    <t>業界をアシストする</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>訪日外国人</t>
+    <rPh sb="0" eb="2">
+      <t>ホウニチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SIMカード入手が困難で通信費用が有料</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SIMカード入手が容易で通信費用が無料</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>訪日外国人観光客のあらゆる不便を解消するサービス</t>
+  </si>
+  <si>
+    <t>Warby Parker</t>
+  </si>
+  <si>
+    <t>直販モデル</t>
+    <rPh sb="0" eb="2">
+      <t>チョクハン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メガネ</t>
+  </si>
+  <si>
+    <t>お店で試着して購入するもの</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シチャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自宅で試着してオンラインで購入するもの</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シチャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自宅で試着してから購入できるメガネ</t>
+  </si>
+  <si>
+    <t>フィル・カンパニー</t>
+  </si>
+  <si>
+    <t>保有能力の活用</t>
+    <rPh sb="0" eb="2">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>店舗内出店</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッテン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>空地の有効活用</t>
+    <rPh sb="0" eb="2">
+      <t>アキチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コインパーキングにするか建物を建てる</t>
+    <rPh sb="12" eb="14">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コインパーキングの上に建物を建てる</t>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「駐車場の上」に建物をつくって土地を有効活用</t>
+  </si>
+  <si>
+    <t>日本環境設計</t>
+  </si>
+  <si>
+    <t>廃品リサイクル</t>
+    <rPh sb="0" eb="2">
+      <t>ハイヒン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リサイクル</t>
+  </si>
+  <si>
+    <t>別の商品に生まれ変わる</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>同じ商品に生まれ変わる</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リサイクルを「しないといけない」から「したい」へ</t>
+  </si>
+  <si>
+    <t>FREITAG</t>
+  </si>
+  <si>
+    <t>究極の逸品</t>
+    <rPh sb="0" eb="2">
+      <t>キュウキョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッピン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ブランド製品</t>
+    <rPh sb="4" eb="6">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>品質が安定しているもの</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>バラバラで個性的なもの</t>
+    <rPh sb="5" eb="8">
+      <t>コセイテキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>廃棄される製品が「世界にひとつだけのバッグ」に変わる</t>
+  </si>
+  <si>
+    <t>サイゼリヤ</t>
+  </si>
+  <si>
+    <t>格安製品</t>
+    <rPh sb="0" eb="2">
+      <t>カクヤス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>合気道</t>
+  </si>
+  <si>
+    <t>ファミレス</t>
+  </si>
+  <si>
+    <t>多彩なメニューを提供</t>
+    <rPh sb="0" eb="2">
+      <t>タサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>食材にこだわった厳選メニューを提供</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンセン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>安いのに本格的な食材を使えるのはなぜ？</t>
+  </si>
+  <si>
+    <t>b8ta</t>
+  </si>
+  <si>
+    <t>小売店</t>
+    <rPh sb="0" eb="2">
+      <t>コウリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品を売る場所</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客の反応をみる場所</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>製品の「ベータテスト」を行うための小売店</t>
+  </si>
+  <si>
+    <t>Vacation STAY</t>
+  </si>
+  <si>
+    <t>民泊仲介サイト</t>
+    <rPh sb="0" eb="2">
+      <t>ミンパク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>物件を1年のうち半年しか貸し出せない</t>
+    <rPh sb="0" eb="2">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>物件を1年中貸し出せる</t>
+    <rPh sb="0" eb="2">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>楽天グループが運営する「物件をハイブリッド活用できるサイト」</t>
+  </si>
+  <si>
+    <t>ecbo cloak</t>
+  </si>
+  <si>
+    <t>荷物</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コインロッカーにしか預けられない</t>
+    <rPh sb="10" eb="11">
+      <t>アズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お店の空きスペースに預けられる</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お店の空きスペースを「コインロッカー」として使える</t>
+  </si>
+  <si>
+    <t>オイシックス</t>
+  </si>
+  <si>
+    <t>E-コマース</t>
+  </si>
+  <si>
+    <t>有機野菜の宅配</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タクハイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>形が不揃いだから安心しづらい</t>
+    <rPh sb="0" eb="1">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フゾロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>形が不揃いでも安心しやすい</t>
+    <rPh sb="0" eb="1">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フゾロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>生産者の顔が見えるから「不揃いな野菜」でも安心</t>
+  </si>
+  <si>
+    <t>横浜DeNAベイスターズ</t>
+  </si>
+  <si>
+    <t>レベニューシェア</t>
+  </si>
+  <si>
+    <t>業界内で突出する</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>野球スタジアム</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>野球の試合を観戦する場</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>野球をきっかけに楽しむ場</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>地域住民との距離感が近い野球スタジアム</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
@@ -3712,7 +4254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3732,6 +4274,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4047,11 +4590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
@@ -4427,548 +4970,570 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
+        <v>21</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10">
+        <v>23</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="H15" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="10">
+        <v>24</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="12">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="H16" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10">
+        <v>25</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="12">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="H17" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="10">
+        <v>26</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10">
+        <v>28</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10">
+        <v>29</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10">
+        <v>30</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="12">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="12">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="12">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="12">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="12">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="12">
-        <v>40</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="12">
-        <v>41</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="12">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>304</v>
+      <c r="D23" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="12">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>313</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="12">
-        <v>44</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>318</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="12">
-        <v>45</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>319</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>373</v>
+        <v>178</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="G26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="12">
-        <v>46</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>320</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="12">
-        <v>47</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>321</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="G28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12">
-        <v>48</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>322</v>
+        <v>37</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>378</v>
+        <v>131</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12">
-        <v>49</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>323</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4976,90 +5541,90 @@
         <v>27</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12">
-        <v>50</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>324</v>
+        <v>39</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12">
-        <v>51</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>325</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>383</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="12">
-        <v>52</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>326</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>384</v>
+        <v>300</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -5067,951 +5632,974 @@
         <v>32</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="12">
-        <v>53</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>327</v>
+        <v>42</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="12">
-        <v>54</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>328</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>385</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>339</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="12">
+        <v>44</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="12">
-        <v>66</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>42</v>
+        <v>348</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="12">
-        <v>67</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="12">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>70</v>
+      <c r="H39" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="12">
-        <v>69</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="12">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="12">
-        <v>71</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>90</v>
+      <c r="H42" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="12">
-        <v>72</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>96</v>
+      <c r="H43" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="12">
-        <v>73</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="12">
-        <v>74</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>108</v>
+      <c r="B45" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="12">
-        <v>75</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="12">
-        <v>76</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="12">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="12">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="12">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="12">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="12">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="12">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="12">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="12">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="12">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="12">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="12">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="12">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10">
-        <v>78</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10">
-        <v>79</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10">
-        <v>80</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10">
-        <v>81</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="10">
-        <v>82</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10">
-        <v>83</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="10">
-        <v>84</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="10">
-        <v>85</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="10">
-        <v>86</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="10">
-        <v>87</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>182</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E62" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="F62" s="8"/>
-      <c r="G62" t="s">
-        <v>32</v>
+      <c r="G62" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>390</v>
+        <v>194</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>388</v>
+        <v>195</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>396</v>
+        <v>199</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>392</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="10">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C64" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
-        <v>415</v>
+      <c r="G64" t="s">
+        <v>32</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>404</v>
+        <v>173</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>398</v>
+        <v>174</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -6019,303 +6607,615 @@
         <v>39</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>406</v>
+        <v>204</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>407</v>
+        <v>205</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>408</v>
+        <v>206</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="10">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>234</v>
+        <v>175</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" t="s">
-        <v>39</v>
+      <c r="G66" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>411</v>
+        <v>208</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>412</v>
+        <v>209</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>413</v>
+        <v>210</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>410</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="10">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="8" t="s">
-        <v>414</v>
+      <c r="G67" t="s">
+        <v>28</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>419</v>
+        <v>213</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>417</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="10">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>421</v>
+        <v>177</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>434</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>423</v>
+        <v>216</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>424</v>
+        <v>217</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>425</v>
+        <v>218</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>422</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="10">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>426</v>
+        <v>179</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" t="s">
-        <v>431</v>
+        <v>178</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>428</v>
+        <v>220</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>429</v>
+        <v>221</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>427</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>435</v>
+        <v>180</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="G70" s="8" t="s">
-        <v>415</v>
+        <v>32</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>437</v>
+        <v>224</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>438</v>
+        <v>225</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>436</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>440</v>
+        <v>183</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" t="s">
+      <c r="G71" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>443</v>
+        <v>229</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>444</v>
+        <v>230</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>441</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>450</v>
+        <v>88</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8" t="s">
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="10">
+        <v>91</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="10">
+        <v>92</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H74" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="10">
+        <v>93</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="10">
+        <v>94</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="10">
+        <v>95</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="10">
+        <v>96</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="10">
+        <v>97</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" t="s">
+        <v>431</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="10">
+        <v>98</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="10">
+        <v>99</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10">
+        <v>100</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H82" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I82" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J82" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K82" s="8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="C74" s="3" t="s">
+    <row r="84" spans="1:11">
+      <c r="C84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G84" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="G75" t="s">
+    <row r="85" spans="1:11">
+      <c r="G85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="G77" t="s">
+    <row r="87" spans="1:11">
+      <c r="G87" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="G78" t="s">
+    <row r="88" spans="1:11">
+      <c r="G88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="G80" t="s">
+    <row r="90" spans="1:11">
+      <c r="G90" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
-      <c r="G81" t="s">
+    <row r="91" spans="1:11">
+      <c r="G91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="7:7">
-      <c r="G83" t="s">
+    <row r="93" spans="1:11">
+      <c r="G93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="7:7">
-      <c r="G84" t="s">
+    <row r="94" spans="1:11">
+      <c r="G94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="7:7">
-      <c r="G87" t="s">
+    <row r="97" spans="7:7">
+      <c r="G97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="7:7">
-      <c r="G88" t="s">
+    <row r="98" spans="7:7">
+      <c r="G98" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="7:7">
-      <c r="G89" t="s">
+    <row r="99" spans="7:7">
+      <c r="G99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="7:7">
-      <c r="G90" t="s">
+    <row r="100" spans="7:7">
+      <c r="G100" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G48 G13:G35">
-      <formula1>$G$87:$G$90</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G59 G24:G46">
+      <formula1>$G$97:$G$100</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
